--- a/Hardware_fabrication/Tracker/v2.0 19.03.2022/BOM v2.0 19.03.2022.xlsx
+++ b/Hardware_fabrication/Tracker/v2.0 19.03.2022/BOM v2.0 19.03.2022.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jedi\Documents\Peggy\Hardware_fabrication\Tracker\v2.0 19.03.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{964C92FE-A5DA-4F72-8BE2-BF93DFF1026B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C6BEE1-11D0-4F90-BAEF-E30AADDE98B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{A7BB1034-AE53-43A3-B98C-BFA5319F2F85}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{5FEA305F-97E8-48EF-8AAB-C9380F8A3BBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Peggy Tracker BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM v2.0 19.03.2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Peggy Tracker BOM'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM v2.0 19.03.2022'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,282 +35,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>Line #</t>
   </si>
   <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Manufacturer Part Number</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GCM188R71H103KA37D</t>
+  </si>
+  <si>
     <t>CAP CER 10000PF 50V X7R 0603</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>GCM188R71H103KA37D</t>
+    <t>C2, C4, C6</t>
+  </si>
+  <si>
+    <t>GCM188R71H104KA57D</t>
   </si>
   <si>
     <t>CAP CER 0.1UF 50V X7R 0603</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>GCM188R71H104KA57D</t>
+    <t>C3, C5, C7</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>CL21Y106KPQVPNE</t>
   </si>
   <si>
     <t>CAP CER 10UF 10V X7S 0805</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>CL21Y106KPQVPNE</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>C2012X5R1C226K125AC</t>
   </si>
   <si>
     <t>TDK - C2012X5R1C226K125AC - SMD Multilayer Ceramic Capacitor, 22 µF, 16 V, 0805 [2012 Metric], ± 10%, X5R, C Series</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>C2012X5R1C226K125AC</t>
+    <t>DA1</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>TPS63000DRCR</t>
   </si>
   <si>
     <t>IC REG BUCK BOOST ADJ 1.6A 10SON</t>
   </si>
   <si>
-    <t>DA1</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>TPS63000DRCR</t>
+    <t>DD1</t>
+  </si>
+  <si>
+    <t>u-blox</t>
+  </si>
+  <si>
+    <t>MAX-M8C-0</t>
   </si>
   <si>
     <t>IC Receiver Gps/gnss 18LCC</t>
   </si>
   <si>
-    <t>DD1</t>
-  </si>
-  <si>
-    <t>u-blox</t>
-  </si>
-  <si>
-    <t>MAX-M8C-0</t>
+    <t>DD2</t>
+  </si>
+  <si>
+    <t>RAK Wireless</t>
+  </si>
+  <si>
+    <t>RAK3172(H)</t>
   </si>
   <si>
     <t>RAK3172 WisDuo LPWAN Module</t>
   </si>
   <si>
-    <t>DD2</t>
-  </si>
-  <si>
-    <t>RAK Wireless</t>
-  </si>
-  <si>
-    <t>RAK3172(H)</t>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>LQW18AN27NJ00D</t>
   </si>
   <si>
     <t>FIXED IND 27NH 440MA 210MOHM SMD</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>LQW18AN27NJ00D</t>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>SRU5018-3R5Y</t>
   </si>
   <si>
     <t>Ind Power Shielded Wirewound 3.5uH 30% 100KHz 9Q-Factor Ferrite 2.1A T/R</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>SRU5018-3R5Y</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>KOA Speer</t>
+  </si>
+  <si>
+    <t>SG73P1JTTD100J</t>
   </si>
   <si>
     <t>RES SMD 10 OHM 5% 1/5W 0603</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>KOA Speer</t>
-  </si>
-  <si>
-    <t>SG73P1JTTD100J</t>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10K0</t>
   </si>
   <si>
     <t>RES SMD 10K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Stackpole Electronics Inc</t>
-  </si>
-  <si>
-    <t>RMCF0603FT10K0</t>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>RMCF0603FT100K</t>
   </si>
   <si>
     <t>RES 100K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>RMCF0603FT100K</t>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>RMCF0603JT1M00</t>
   </si>
   <si>
     <t>RES 1M OHM 5% 1/10W 0603</t>
   </si>
   <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>Stackpole Electronics</t>
-  </si>
-  <si>
-    <t>RMCF0603JT1M00</t>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1783V</t>
   </si>
   <si>
     <t>ICK FILM, RESISTOR, 178KOHM, 100mW, ±1%; Product Range:PANASONIC - ERJ Series; Resistance:178kohm; Power Rating:100mW; Resistance Tolerance:± 1%; Resistor Case Style:0603 ^1608 Metric]; Resistor Element Type:Thick Film; MSL:-</t>
   </si>
   <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1783V</t>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF2373V</t>
   </si>
   <si>
     <t>RES SMD 237K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF2373V</t>
+    <t>TP1, TP2</t>
+  </si>
+  <si>
+    <t>JST Sales America Inc.</t>
+  </si>
+  <si>
+    <t>ASPHSPH24K305</t>
   </si>
   <si>
     <t>Black 24 AWG Jumper Lead Socket to Socket Tin 12.0</t>
   </si>
   <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>JST Sales America Inc.</t>
-  </si>
-  <si>
-    <t>ASPHSPH24K305</t>
-  </si>
-  <si>
-    <t>TP2</t>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Memory Protection Devices</t>
+  </si>
+  <si>
+    <t>BA2032SM</t>
   </si>
   <si>
     <t>Battery Holder Coin 20MM SMD</t>
   </si>
   <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>Memory Protection Devices</t>
-  </si>
-  <si>
-    <t>BA2032SM</t>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>Japan Solderless Terminals</t>
+  </si>
+  <si>
+    <t>JST B2B-PH-K-S(LF)(SN)</t>
   </si>
   <si>
     <t>CONN HEADER VERT 2POS 2MM</t>
   </si>
   <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>Japan Solderless Terminals</t>
-  </si>
-  <si>
-    <t>JST B2B-PH-K-S(LF)(SN)</t>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>PHR-2</t>
   </si>
   <si>
     <t>CONN HOUSING PH 2POS 2MM WHITE</t>
   </si>
   <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>JST</t>
-  </si>
-  <si>
-    <t>PHR-2</t>
+    <t>XP2</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>5-146278-8</t>
   </si>
   <si>
     <t>Conn Unshrouded Header HDR 5 POS 2.54mm Solder ST Thru-Hole Carton</t>
   </si>
   <si>
-    <t>XP2</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>5-146278-8</t>
+    <t>XW1, XW2</t>
+  </si>
+  <si>
+    <t>Linx Technologies Inc.</t>
+  </si>
+  <si>
+    <t>CONUFL001-SMD-T</t>
   </si>
   <si>
     <t>CONN UMC JACK STR SMD</t>
-  </si>
-  <si>
-    <t>XW1</t>
-  </si>
-  <si>
-    <t>Linx Technologies Inc.</t>
-  </si>
-  <si>
-    <t>CONUFL001-SMD-T</t>
-  </si>
-  <si>
-    <t>XW2</t>
   </si>
 </sst>
 </file>
@@ -327,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -378,6 +366,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,20 +687,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA55119F-B753-4AC0-A2FC-319A66E97DB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A3F6E4-AFA5-46BA-A969-FDA70CDC5768}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="5" width="16" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -726,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -743,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -751,10 +747,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -777,55 +773,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -833,333 +827,241 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>54</v>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="3" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="32" orientation="landscape" blackAndWhite="1" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="56" orientation="landscape" blackAndWhite="1" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>